--- a/va_facility_data_2025-02-20/Hibbing VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hibbing%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hibbing VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hibbing%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7d53f6795bf34b5bb8545279bcd5599b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra579a2d923bb4672af08c16667a46bdb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra8a5b8f2474c43d98fd4466bbdf21362"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rab1fec1c15ef4af5b6e52d8c97054940"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra804015761304d8b856f100a2fd22e85"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77076a4d179f463bbef83cea620db5cc"/>
   </x:sheets>
 </x:workbook>
 </file>
